--- a/leetcode_progress_notebook_xjy.xlsx
+++ b/leetcode_progress_notebook_xjy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yx/Documents/coding_notebook_xjy/leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yx/Documents/coding_notebook/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31A61A8-7179-5E41-AFE9-164478973855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB4DA74-FCFC-2C47-AD7A-9C7A3538CBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20500" yWindow="500" windowWidth="39660" windowHeight="31580" xr2:uid="{89E52A15-FAE8-124D-8896-626CE5B3070D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="276">
   <si>
     <t>Binary Search</t>
   </si>
@@ -855,6 +855,12 @@
   </si>
   <si>
     <t xml:space="preserve">My solution is O(n) time and O(n) space,  don't know how to do O(1) space. XOR to get the O(1) space solution. </t>
+  </si>
+  <si>
+    <t>Baseball Game</t>
+  </si>
+  <si>
+    <t>Very easy using stack, the only thing to mind is the negative numbers. Or use Larry's method, don't touch the negative numbers at all, just use an else statement to cover all negatives.</t>
   </si>
 </sst>
 </file>
@@ -1307,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B03AB52-489F-0F48-B7D9-53CA565158DD}">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3256,7 +3262,21 @@
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G100" s="16"/>
+      <c r="B100">
+        <v>682</v>
+      </c>
+      <c r="C100" t="s">
+        <v>274</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>59</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G101" s="16"/>

--- a/leetcode_progress_notebook_xjy.xlsx
+++ b/leetcode_progress_notebook_xjy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yx/Documents/coding_notebook/leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yx/Documents/coding-notebook/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB4DA74-FCFC-2C47-AD7A-9C7A3538CBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E691F8B8-228D-A34E-9679-CFF1DF563FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20500" yWindow="500" windowWidth="39660" windowHeight="31580" xr2:uid="{89E52A15-FAE8-124D-8896-626CE5B3070D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="278">
   <si>
     <t>Binary Search</t>
   </si>
@@ -861,6 +861,12 @@
   </si>
   <si>
     <t>Very easy using stack, the only thing to mind is the negative numbers. Or use Larry's method, don't touch the negative numbers at all, just use an else statement to cover all negatives.</t>
+  </si>
+  <si>
+    <t>Implement Stack using Queues</t>
+  </si>
+  <si>
+    <t>My passed solution doesn't make sense. Larry's solution visualizes better.</t>
   </si>
 </sst>
 </file>
@@ -3279,7 +3285,24 @@
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G101" s="16"/>
+      <c r="B101">
+        <v>225</v>
+      </c>
+      <c r="C101" t="s">
+        <v>276</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>97</v>
+      </c>
+      <c r="F101" t="s">
+        <v>59</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G102" s="16"/>

--- a/leetcode_progress_notebook_xjy.xlsx
+++ b/leetcode_progress_notebook_xjy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yx/Documents/coding-notebook/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E691F8B8-228D-A34E-9679-CFF1DF563FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67594F4F-EB55-7948-9E0B-0EAB38C15388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20500" yWindow="500" windowWidth="39660" windowHeight="31580" xr2:uid="{89E52A15-FAE8-124D-8896-626CE5B3070D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="280">
   <si>
     <t>Binary Search</t>
   </si>
@@ -867,6 +867,12 @@
   </si>
   <si>
     <t>My passed solution doesn't make sense. Larry's solution visualizes better.</t>
+  </si>
+  <si>
+    <t>Number of Steps to Reduce a Number to Zero</t>
+  </si>
+  <si>
+    <t>Too easy to be useful. But I don't understand the complexity.</t>
   </si>
 </sst>
 </file>
@@ -1319,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B03AB52-489F-0F48-B7D9-53CA565158DD}">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3232,6 +3238,9 @@
       <c r="D97" t="s">
         <v>2</v>
       </c>
+      <c r="E97" t="s">
+        <v>128</v>
+      </c>
       <c r="G97" s="16" t="s">
         <v>269</v>
       </c>
@@ -3246,6 +3255,9 @@
       <c r="D98" t="s">
         <v>1</v>
       </c>
+      <c r="E98" t="s">
+        <v>128</v>
+      </c>
       <c r="G98" s="16" t="s">
         <v>271</v>
       </c>
@@ -3305,7 +3317,24 @@
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G102" s="16"/>
+      <c r="B102">
+        <v>1324</v>
+      </c>
+      <c r="C102" t="s">
+        <v>278</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>232</v>
+      </c>
+      <c r="F102" t="s">
+        <v>182</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G103" s="16"/>

--- a/leetcode_progress_notebook_xjy.xlsx
+++ b/leetcode_progress_notebook_xjy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yx/Documents/coding-notebook/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67594F4F-EB55-7948-9E0B-0EAB38C15388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFF6C0E-E81B-0A45-AF64-FB6C9991F247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20500" yWindow="500" windowWidth="39660" windowHeight="31580" xr2:uid="{89E52A15-FAE8-124D-8896-626CE5B3070D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="282">
   <si>
     <t>Binary Search</t>
   </si>
@@ -873,6 +873,12 @@
   </si>
   <si>
     <t>Too easy to be useful. But I don't understand the complexity.</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>My solution is easy and straightforward. Larry's solution is smart. Always learning new stuff from Larry.</t>
   </si>
 </sst>
 </file>
@@ -3337,7 +3343,24 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G103" s="16"/>
+      <c r="B103">
+        <v>268</v>
+      </c>
+      <c r="C103" t="s">
+        <v>280</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>232</v>
+      </c>
+      <c r="F103" t="s">
+        <v>128</v>
+      </c>
+      <c r="G103" s="16" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G104" s="16"/>
